--- a/input/tables_extraction/SDGs/SDG_indicators.xlsx
+++ b/input/tables_extraction/SDGs/SDG_indicators.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4635" uniqueCount="2210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4635" uniqueCount="2211">
   <si>
     <t>This document is to create an overview of indicators from the global, regional, values and sustainable use assessments</t>
   </si>
@@ -5035,6 +5035,9 @@
   </si>
   <si>
     <t>SDG_10_2_1_140</t>
+  </si>
+  <si>
+    <t>10.3.1 Proportion of population reporting having personally felt discriminated against or harassed in the previous 12 months on the basis of a ground of discrimination prohibited under international human rights law</t>
   </si>
   <si>
     <t>10_3_1</t>
@@ -16576,7 +16579,7 @@
     <col customWidth="1" min="2" max="2" width="13.0"/>
     <col customWidth="1" min="3" max="3" width="17.0"/>
     <col customWidth="1" min="4" max="5" width="8.56"/>
-    <col customWidth="1" min="6" max="6" width="103.33"/>
+    <col customWidth="1" min="6" max="6" width="140.67"/>
     <col customWidth="1" min="7" max="23" width="8.56"/>
   </cols>
   <sheetData>
@@ -19849,17 +19852,17 @@
       <c r="C142" s="31" t="s">
         <v>366</v>
       </c>
-      <c r="D142" s="31" t="s">
-        <v>367</v>
+      <c r="D142" s="40" t="s">
+        <v>1175</v>
       </c>
       <c r="E142" s="37" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="F142" s="38" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="G142" s="39" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="143">
@@ -19876,13 +19879,13 @@
         <v>370</v>
       </c>
       <c r="E143" s="37" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="F143" s="38" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="G143" s="39" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="144">
@@ -19896,16 +19899,16 @@
         <v>369</v>
       </c>
       <c r="D144" s="40" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="E144" s="37" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="F144" s="38" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="G144" s="39" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="145">
@@ -19922,13 +19925,13 @@
         <v>375</v>
       </c>
       <c r="E145" s="37" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="F145" s="38" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="G145" s="39" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="146">
@@ -19945,13 +19948,13 @@
         <v>378</v>
       </c>
       <c r="E146" s="37" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="F146" s="38" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="G146" s="39" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="147">
@@ -19968,13 +19971,13 @@
         <v>381</v>
       </c>
       <c r="E147" s="37" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="F147" s="38" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="G147" s="39" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="148">
@@ -19991,13 +19994,13 @@
         <v>383</v>
       </c>
       <c r="E148" s="37" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="F148" s="38" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="G148" s="39" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="149">
@@ -20014,13 +20017,13 @@
         <v>385</v>
       </c>
       <c r="E149" s="37" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="F149" s="38" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="G149" s="39" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="150">
@@ -20037,13 +20040,13 @@
         <v>387</v>
       </c>
       <c r="E150" s="37" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="F150" s="38" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="G150" s="39" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="151">
@@ -20060,13 +20063,13 @@
         <v>390</v>
       </c>
       <c r="E151" s="37" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="F151" s="38" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="G151" s="39" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="152">
@@ -20083,13 +20086,13 @@
         <v>393</v>
       </c>
       <c r="E152" s="37" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="F152" s="38" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="G152" s="39" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="153">
@@ -20106,13 +20109,13 @@
         <v>396</v>
       </c>
       <c r="E153" s="37" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="F153" s="38" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="G153" s="39" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="154">
@@ -20129,13 +20132,13 @@
         <v>400</v>
       </c>
       <c r="E154" s="37" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F154" s="38" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="G154" s="39" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="155">
@@ -20152,13 +20155,13 @@
         <v>403</v>
       </c>
       <c r="E155" s="37" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F155" s="38" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="G155" s="39" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="156">
@@ -20175,13 +20178,13 @@
         <v>406</v>
       </c>
       <c r="E156" s="37" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="F156" s="38" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="G156" s="39" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="157">
@@ -20198,13 +20201,13 @@
         <v>408</v>
       </c>
       <c r="E157" s="37" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="F157" s="38" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="G157" s="39" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="158">
@@ -20221,13 +20224,13 @@
         <v>411</v>
       </c>
       <c r="E158" s="37" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="F158" s="38" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="G158" s="39" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="159">
@@ -20244,13 +20247,13 @@
         <v>414</v>
       </c>
       <c r="E159" s="37" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="F159" s="38" t="s">
         <v>768</v>
       </c>
       <c r="G159" s="39" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="160">
@@ -20267,13 +20270,13 @@
         <v>415</v>
       </c>
       <c r="E160" s="37" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="F160" s="38" t="s">
         <v>771</v>
       </c>
       <c r="G160" s="39" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="161">
@@ -20287,16 +20290,16 @@
         <v>413</v>
       </c>
       <c r="D161" s="31" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="E161" s="37" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="F161" s="38" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="G161" s="39" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="162">
@@ -20310,16 +20313,16 @@
         <v>413</v>
       </c>
       <c r="D162" s="31" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="E162" s="37" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="F162" s="38" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="G162" s="39" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="163">
@@ -20336,13 +20339,13 @@
         <v>419</v>
       </c>
       <c r="E163" s="37" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="F163" s="38" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="G163" s="39" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="164">
@@ -20356,16 +20359,16 @@
         <v>418</v>
       </c>
       <c r="D164" s="40" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="E164" s="37" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="F164" s="38" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="G164" s="39" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="165">
@@ -20382,13 +20385,13 @@
         <v>424</v>
       </c>
       <c r="E165" s="37" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="F165" s="38" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="G165" s="39" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="166">
@@ -20405,13 +20408,13 @@
         <v>426</v>
       </c>
       <c r="E166" s="37" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="F166" s="38" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="G166" s="39" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="167">
@@ -20425,16 +20428,16 @@
         <v>428</v>
       </c>
       <c r="D167" s="31" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="E167" s="37" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="F167" s="38" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="G167" s="39" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="168">
@@ -20448,16 +20451,16 @@
         <v>428</v>
       </c>
       <c r="D168" s="31" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="E168" s="37" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="F168" s="38" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="G168" s="39" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="169">
@@ -20471,16 +20474,16 @@
         <v>428</v>
       </c>
       <c r="D169" s="31" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="E169" s="37" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="F169" s="38" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="G169" s="39" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="170">
@@ -20497,13 +20500,13 @@
         <v>432</v>
       </c>
       <c r="E170" s="37" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="F170" s="38" t="s">
         <v>774</v>
       </c>
       <c r="G170" s="39" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="171">
@@ -20520,13 +20523,13 @@
         <v>433</v>
       </c>
       <c r="E171" s="37" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="F171" s="38" t="s">
         <v>777</v>
       </c>
       <c r="G171" s="39" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="172">
@@ -20556,13 +20559,13 @@
         <v>438</v>
       </c>
       <c r="E173" s="37" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="F173" s="38" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="G173" s="39" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="174">
@@ -20579,13 +20582,13 @@
         <v>441</v>
       </c>
       <c r="E174" s="37" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="F174" s="38" t="s">
         <v>1090</v>
       </c>
       <c r="G174" s="39" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="175">
@@ -20602,13 +20605,13 @@
         <v>442</v>
       </c>
       <c r="E175" s="37" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="F175" s="38" t="s">
         <v>1093</v>
       </c>
       <c r="G175" s="39" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="176">
@@ -20622,16 +20625,16 @@
         <v>443</v>
       </c>
       <c r="D176" s="31" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="E176" s="37" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="F176" s="38" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="G176" s="39" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="177">
@@ -20645,16 +20648,16 @@
         <v>443</v>
       </c>
       <c r="D177" s="31" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="E177" s="37" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="F177" s="38" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="G177" s="39" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="178">
@@ -20671,13 +20674,13 @@
         <v>447</v>
       </c>
       <c r="E178" s="37" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="F178" s="38" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="G178" s="39" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="179">
@@ -20691,16 +20694,16 @@
         <v>446</v>
       </c>
       <c r="D179" s="31" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="E179" s="37" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="F179" s="38" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="G179" s="39" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="180">
@@ -20714,16 +20717,16 @@
         <v>446</v>
       </c>
       <c r="D180" s="31" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="E180" s="37" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="F180" s="38" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="G180" s="39" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="181">
@@ -20740,13 +20743,13 @@
         <v>452</v>
       </c>
       <c r="E181" s="37" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="F181" s="38" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="G181" s="39" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="182">
@@ -20763,13 +20766,13 @@
         <v>455</v>
       </c>
       <c r="E182" s="37" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="F182" s="38" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="G182" s="39" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="183">
@@ -20783,16 +20786,16 @@
         <v>457</v>
       </c>
       <c r="D183" s="31" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="E183" s="37" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="F183" s="38" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="G183" s="39" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="184">
@@ -20806,16 +20809,16 @@
         <v>460</v>
       </c>
       <c r="D184" s="31" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="E184" s="37" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="F184" s="38" t="s">
         <v>955</v>
       </c>
       <c r="G184" s="39" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="185">
@@ -20829,16 +20832,16 @@
         <v>460</v>
       </c>
       <c r="D185" s="31" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="E185" s="37" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="F185" s="38" t="s">
         <v>958</v>
       </c>
       <c r="G185" s="39" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="186">
@@ -20852,16 +20855,16 @@
         <v>460</v>
       </c>
       <c r="D186" s="31" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="E186" s="37" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="F186" s="38" t="s">
         <v>961</v>
       </c>
       <c r="G186" s="39" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="187">
@@ -20875,16 +20878,16 @@
         <v>460</v>
       </c>
       <c r="D187" s="31" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="E187" s="37" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="F187" s="38" t="s">
         <v>964</v>
       </c>
       <c r="G187" s="39" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="188">
@@ -20901,13 +20904,13 @@
         <v>463</v>
       </c>
       <c r="E188" s="37" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F188" s="38" t="s">
         <v>1078</v>
       </c>
       <c r="G188" s="39" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="189">
@@ -20924,13 +20927,13 @@
         <v>465</v>
       </c>
       <c r="E189" s="37" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="F189" s="38" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="G189" s="39" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="190">
@@ -20947,13 +20950,13 @@
         <v>468</v>
       </c>
       <c r="E190" s="37" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="F190" s="38" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="G190" s="39" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="191">
@@ -20970,13 +20973,13 @@
         <v>472</v>
       </c>
       <c r="E191" s="37" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="F191" s="38" t="s">
         <v>768</v>
       </c>
       <c r="G191" s="39" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="192">
@@ -20993,13 +20996,13 @@
         <v>473</v>
       </c>
       <c r="E192" s="37" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="F192" s="38" t="s">
         <v>774</v>
       </c>
       <c r="G192" s="39" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="193">
@@ -21016,13 +21019,13 @@
         <v>474</v>
       </c>
       <c r="E193" s="37" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="F193" s="38" t="s">
         <v>777</v>
       </c>
       <c r="G193" s="39" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="194">
@@ -21039,13 +21042,13 @@
         <v>476</v>
       </c>
       <c r="E194" s="37" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="F194" s="38" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="G194" s="39" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="195">
@@ -21062,13 +21065,13 @@
         <v>478</v>
       </c>
       <c r="E195" s="37" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="F195" s="38" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="G195" s="39" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="196">
@@ -21082,16 +21085,16 @@
         <v>480</v>
       </c>
       <c r="D196" s="31" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="E196" s="37" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="F196" s="38" t="s">
         <v>955</v>
       </c>
       <c r="G196" s="39" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="197">
@@ -21105,16 +21108,16 @@
         <v>480</v>
       </c>
       <c r="D197" s="31" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="E197" s="37" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="F197" s="38" t="s">
         <v>958</v>
       </c>
       <c r="G197" s="39" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="198">
@@ -21128,16 +21131,16 @@
         <v>480</v>
       </c>
       <c r="D198" s="31" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="E198" s="37" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="F198" s="38" t="s">
         <v>961</v>
       </c>
       <c r="G198" s="39" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="199">
@@ -21151,16 +21154,16 @@
         <v>480</v>
       </c>
       <c r="D199" s="31" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="E199" s="37" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="F199" s="38" t="s">
         <v>964</v>
       </c>
       <c r="G199" s="39" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="200">
@@ -21177,13 +21180,13 @@
         <v>483</v>
       </c>
       <c r="E200" s="37" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="F200" s="38" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="G200" s="39" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="201">
@@ -21200,13 +21203,13 @@
         <v>486</v>
       </c>
       <c r="E201" s="37" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="F201" s="38" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="G201" s="39" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="202">
@@ -21220,16 +21223,16 @@
         <v>489</v>
       </c>
       <c r="D202" s="31" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="E202" s="37" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="F202" s="38" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G202" s="39" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="203">
@@ -21243,16 +21246,16 @@
         <v>489</v>
       </c>
       <c r="D203" s="31" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="E203" s="37" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="F203" s="38" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G203" s="39" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="204">
@@ -21269,13 +21272,13 @@
         <v>493</v>
       </c>
       <c r="E204" s="37" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="F204" s="38" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G204" s="39" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="205">
@@ -21292,13 +21295,13 @@
         <v>496</v>
       </c>
       <c r="E205" s="37" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="F205" s="38" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G205" s="39" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="206">
@@ -21315,13 +21318,13 @@
         <v>499</v>
       </c>
       <c r="E206" s="37" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="F206" s="38" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G206" s="39" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="207">
@@ -21338,13 +21341,13 @@
         <v>502</v>
       </c>
       <c r="E207" s="37" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="F207" s="38" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="G207" s="39" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="208">
@@ -21361,13 +21364,13 @@
         <v>505</v>
       </c>
       <c r="E208" s="37" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="F208" s="38" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="G208" s="39" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="209">
@@ -21384,13 +21387,13 @@
         <v>508</v>
       </c>
       <c r="E209" s="37" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="F209" s="38" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="G209" s="39" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="210">
@@ -21407,13 +21410,13 @@
         <v>511</v>
       </c>
       <c r="E210" s="37" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="F210" s="38" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="G210" s="39" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="211">
@@ -21430,13 +21433,13 @@
         <v>514</v>
       </c>
       <c r="E211" s="37" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="F211" s="38" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="G211" s="39" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="212">
@@ -21453,13 +21456,13 @@
         <v>517</v>
       </c>
       <c r="E212" s="37" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="F212" s="38" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="G212" s="39" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="213">
@@ -21476,13 +21479,13 @@
         <v>521</v>
       </c>
       <c r="E213" s="37" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="F213" s="38" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="G213" s="39" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="214">
@@ -21499,13 +21502,13 @@
         <v>523</v>
       </c>
       <c r="E214" s="37" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="F214" s="38" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="G214" s="39" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="215">
@@ -21522,13 +21525,13 @@
         <v>526</v>
       </c>
       <c r="E215" s="37" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="F215" s="38" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="G215" s="39" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="216">
@@ -21545,13 +21548,13 @@
         <v>529</v>
       </c>
       <c r="E216" s="37" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="F216" s="38" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="G216" s="39" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="217">
@@ -21568,13 +21571,13 @@
         <v>532</v>
       </c>
       <c r="E217" s="37" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="F217" s="38" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="G217" s="39" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="218">
@@ -21591,13 +21594,13 @@
         <v>534</v>
       </c>
       <c r="E218" s="37" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="F218" s="38" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="G218" s="39" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="219">
@@ -21614,13 +21617,13 @@
         <v>537</v>
       </c>
       <c r="E219" s="37" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="F219" s="38" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G219" s="39" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="220">
@@ -21637,13 +21640,13 @@
         <v>540</v>
       </c>
       <c r="E220" s="37" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="F220" s="38" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="G220" s="39" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="221">
@@ -21660,13 +21663,13 @@
         <v>543</v>
       </c>
       <c r="E221" s="37" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="F221" s="38" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="G221" s="39" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="222">
@@ -21683,13 +21686,13 @@
         <v>546</v>
       </c>
       <c r="E222" s="37" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="F222" s="38" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G222" s="39" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="223">
@@ -21703,16 +21706,16 @@
         <v>548</v>
       </c>
       <c r="D223" s="31" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="E223" s="37" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="F223" s="38" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="G223" s="39" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="224">
@@ -21726,16 +21729,16 @@
         <v>548</v>
       </c>
       <c r="D224" s="31" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="E224" s="37" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="F224" s="38" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="G224" s="39" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="225">
@@ -21749,16 +21752,16 @@
         <v>551</v>
       </c>
       <c r="D225" s="31" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="E225" s="37" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="F225" s="38" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="G225" s="39" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="226">
@@ -21772,16 +21775,16 @@
         <v>551</v>
       </c>
       <c r="D226" s="31" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="E226" s="37" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="F226" s="38" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="G226" s="39" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="227">
@@ -21795,16 +21798,16 @@
         <v>554</v>
       </c>
       <c r="D227" s="31" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="E227" s="37" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="F227" s="38" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="G227" s="39" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="228">
@@ -21818,16 +21821,16 @@
         <v>554</v>
       </c>
       <c r="D228" s="31" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="E228" s="37" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="F228" s="38" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="G228" s="39" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="229">
@@ -21844,13 +21847,13 @@
         <v>557</v>
       </c>
       <c r="E229" s="37" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="F229" s="38" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="G229" s="39" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="230">
@@ -21867,13 +21870,13 @@
         <v>560</v>
       </c>
       <c r="E230" s="37" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="F230" s="38" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="G230" s="39" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="231">
@@ -21890,13 +21893,13 @@
         <v>562</v>
       </c>
       <c r="E231" s="37" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="F231" s="38" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="G231" s="39" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="232">
@@ -21910,16 +21913,16 @@
         <v>559</v>
       </c>
       <c r="D232" s="31" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="E232" s="37" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="F232" s="38" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="G232" s="39" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="233">
@@ -21933,16 +21936,16 @@
         <v>559</v>
       </c>
       <c r="D233" s="31" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="E233" s="37" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="F233" s="38" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="G233" s="39" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="234">
@@ -21956,16 +21959,16 @@
         <v>559</v>
       </c>
       <c r="D234" s="31" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="E234" s="37" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="F234" s="38" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="G234" s="39" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="235">
@@ -21982,13 +21985,13 @@
         <v>566</v>
       </c>
       <c r="E235" s="37" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="F235" s="38" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="G235" s="39" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="236">
@@ -22005,13 +22008,13 @@
         <v>569</v>
       </c>
       <c r="E236" s="37" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="F236" s="38" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="G236" s="39" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="237">
@@ -22028,13 +22031,13 @@
         <v>571</v>
       </c>
       <c r="E237" s="37" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="F237" s="38" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="G237" s="39" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="238">
@@ -22051,13 +22054,13 @@
         <v>573</v>
       </c>
       <c r="E238" s="37" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="F238" s="38" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="G238" s="39" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="239">
@@ -22074,13 +22077,13 @@
         <v>576</v>
       </c>
       <c r="E239" s="37" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="F239" s="38" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="G239" s="39" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="240">
@@ -22097,13 +22100,13 @@
         <v>578</v>
       </c>
       <c r="E240" s="37" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="F240" s="38" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="G240" s="39" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="241">
@@ -22120,13 +22123,13 @@
         <v>580</v>
       </c>
       <c r="E241" s="37" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="F241" s="38" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="G241" s="39" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="242">
@@ -22143,13 +22146,13 @@
         <v>583</v>
       </c>
       <c r="E242" s="37" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="F242" s="38" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="G242" s="39" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="243">
@@ -22166,13 +22169,13 @@
         <v>585</v>
       </c>
       <c r="E243" s="37" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="F243" s="38" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="G243" s="39" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="244">
@@ -22189,13 +22192,13 @@
         <v>588</v>
       </c>
       <c r="E244" s="37" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="F244" s="38" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="G244" s="39" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="245">
@@ -22212,13 +22215,13 @@
         <v>590</v>
       </c>
       <c r="E245" s="37" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="F245" s="38" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="G245" s="39" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="246">
@@ -22235,13 +22238,13 @@
         <v>593</v>
       </c>
       <c r="E246" s="37" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="F246" s="38" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="G246" s="39" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="247">
@@ -22258,13 +22261,13 @@
         <v>595</v>
       </c>
       <c r="E247" s="37" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="F247" s="38" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="G247" s="39" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="248">
@@ -22278,16 +22281,16 @@
         <v>597</v>
       </c>
       <c r="D248" s="31" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="E248" s="37" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="F248" s="38" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="G248" s="39" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="249">
@@ -22301,16 +22304,16 @@
         <v>597</v>
       </c>
       <c r="D249" s="31" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="E249" s="37" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="F249" s="38" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="G249" s="39" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="250">
@@ -22324,16 +22327,16 @@
         <v>597</v>
       </c>
       <c r="D250" s="31" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="E250" s="37" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="F250" s="38" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="G250" s="39" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="251">
@@ -22350,13 +22353,13 @@
         <v>600</v>
       </c>
       <c r="E251" s="37" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="F251" s="38" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="G251" s="39" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="252">
@@ -22373,13 +22376,13 @@
         <v>603</v>
       </c>
       <c r="E252" s="37" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="F252" s="38" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="G252" s="39" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="253">
@@ -22396,13 +22399,13 @@
         <v>605</v>
       </c>
       <c r="E253" s="37" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="F253" s="38" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="G253" s="39" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="254">
@@ -22419,13 +22422,13 @@
         <v>608</v>
       </c>
       <c r="E254" s="37" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="F254" s="38" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="G254" s="39" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="255">
@@ -22442,13 +22445,13 @@
         <v>610</v>
       </c>
       <c r="E255" s="37" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="F255" s="38" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="G255" s="39" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="256">
@@ -22465,13 +22468,13 @@
         <v>613</v>
       </c>
       <c r="E256" s="37" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="F256" s="38" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="G256" s="39" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="257">
@@ -22488,13 +22491,13 @@
         <v>616</v>
       </c>
       <c r="E257" s="37" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="F257" s="38" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="G257" s="39" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="258">
@@ -22511,13 +22514,13 @@
         <v>620</v>
       </c>
       <c r="E258" s="37" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="F258" s="38" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="G258" s="39" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="259">
@@ -22534,13 +22537,13 @@
         <v>622</v>
       </c>
       <c r="E259" s="37" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="F259" s="38" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="G259" s="39" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="260">
@@ -22557,13 +22560,13 @@
         <v>625</v>
       </c>
       <c r="E260" s="37" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="F260" s="38" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="G260" s="39" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="261">
@@ -22580,13 +22583,13 @@
         <v>628</v>
       </c>
       <c r="E261" s="37" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="F261" s="38" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="G261" s="39" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="262">
@@ -22603,13 +22606,13 @@
         <v>630</v>
       </c>
       <c r="E262" s="37" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="F262" s="38" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="G262" s="39" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="263">
@@ -22626,13 +22629,13 @@
         <v>633</v>
       </c>
       <c r="E263" s="37" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="F263" s="38" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="G263" s="39" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="264">
@@ -22649,13 +22652,13 @@
         <v>636</v>
       </c>
       <c r="E264" s="37" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F264" s="38" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="G264" s="39" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="265">
@@ -22669,16 +22672,16 @@
         <v>639</v>
       </c>
       <c r="D265" s="31" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="E265" s="37" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="F265" s="38" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="G265" s="39" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="266">
@@ -22695,13 +22698,13 @@
         <v>643</v>
       </c>
       <c r="E266" s="37" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="F266" s="38" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="G266" s="39" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="267">
@@ -22718,13 +22721,13 @@
         <v>646</v>
       </c>
       <c r="E267" s="37" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="F267" s="38" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="G267" s="39" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="268">
@@ -22741,13 +22744,13 @@
         <v>650</v>
       </c>
       <c r="E268" s="37" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="F268" s="38" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="G268" s="39" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="269">
@@ -22764,13 +22767,13 @@
         <v>654</v>
       </c>
       <c r="E269" s="37" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="F269" s="38" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="G269" s="39" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="270">
@@ -22787,13 +22790,13 @@
         <v>657</v>
       </c>
       <c r="E270" s="37" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="F270" s="38" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="G270" s="39" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="271">
@@ -22810,13 +22813,13 @@
         <v>660</v>
       </c>
       <c r="E271" s="37" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="F271" s="38" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="G271" s="39" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="272">
@@ -22833,13 +22836,13 @@
         <v>665</v>
       </c>
       <c r="E272" s="37" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="F272" s="38" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="G272" s="39" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="273">
@@ -22856,13 +22859,13 @@
         <v>668</v>
       </c>
       <c r="E273" s="37" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="F273" s="38" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="G273" s="39" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="274">
@@ -22879,13 +22882,13 @@
         <v>671</v>
       </c>
       <c r="E274" s="37" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="F274" s="38" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="G274" s="39" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="275">
@@ -22902,13 +22905,13 @@
         <v>675</v>
       </c>
       <c r="E275" s="37" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="F275" s="38" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="G275" s="39" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="276">
@@ -22925,13 +22928,13 @@
         <v>678</v>
       </c>
       <c r="E276" s="37" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="F276" s="38" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="G276" s="39" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="277">
@@ -22948,13 +22951,13 @@
         <v>682</v>
       </c>
       <c r="E277" s="37" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="F277" s="38" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="G277" s="39" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="278">
@@ -22971,13 +22974,13 @@
         <v>684</v>
       </c>
       <c r="E278" s="37" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="F278" s="38" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="G278" s="39" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="279">
@@ -22994,13 +22997,13 @@
         <v>686</v>
       </c>
       <c r="E279" s="37" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="F279" s="38" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="G279" s="39" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="280">
@@ -23017,13 +23020,13 @@
         <v>689</v>
       </c>
       <c r="E280" s="37" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="F280" s="38" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="G280" s="39" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="281">
@@ -23037,16 +23040,16 @@
         <v>688</v>
       </c>
       <c r="D281" s="31" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E281" s="37" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="F281" s="38" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="G281" s="39" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="282">
@@ -23060,16 +23063,16 @@
         <v>688</v>
       </c>
       <c r="D282" s="31" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E282" s="37" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="F282" s="38" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="G282" s="39" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="283">
@@ -26103,22 +26106,22 @@
         <v>704</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="F1" s="43" t="s">
         <v>743</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H1" s="43" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="I1" s="43" t="s">
         <v>7</v>
@@ -26155,13 +26158,13 @@
         <v>19</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="G2" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H2" s="46" t="b">
         <v>0</v>
@@ -26184,13 +26187,13 @@
         <v>22</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="G3" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H3" s="46" t="b">
         <v>0</v>
@@ -26213,13 +26216,13 @@
         <v>22</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H4" s="46" t="b">
         <v>0</v>
@@ -26242,13 +26245,13 @@
         <v>27</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H5" s="46" t="b">
         <v>0</v>
@@ -26271,13 +26274,13 @@
         <v>30</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H6" s="46" t="b">
         <v>0</v>
@@ -26300,13 +26303,13 @@
         <v>30</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H7" s="46" t="b">
         <v>0</v>
@@ -26329,13 +26332,13 @@
         <v>35</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="G8" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H8" s="46" t="b">
         <v>0</v>
@@ -26358,13 +26361,13 @@
         <v>35</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H9" s="46" t="b">
         <v>0</v>
@@ -26387,13 +26390,13 @@
         <v>35</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H10" s="46" t="b">
         <v>0</v>
@@ -26416,13 +26419,13 @@
         <v>35</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="G11" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H11" s="46" t="b">
         <v>0</v>
@@ -26439,19 +26442,19 @@
         <v>706</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="D12" s="45" t="s">
         <v>44</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H12" s="46" t="b">
         <v>0</v>
@@ -26468,19 +26471,19 @@
         <v>706</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="D13" s="45" t="s">
         <v>44</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H13" s="46" t="b">
         <v>0</v>
@@ -26497,19 +26500,19 @@
         <v>706</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="D14" s="45" t="s">
         <v>49</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H14" s="46" t="b">
         <v>0</v>
@@ -26532,13 +26535,13 @@
         <v>53</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H15" s="46" t="b">
         <v>0</v>
@@ -26561,13 +26564,13 @@
         <v>53</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="G16" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H16" s="46" t="b">
         <v>0</v>
@@ -26587,16 +26590,16 @@
         <v>2.2</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H17" s="46" t="b">
         <v>0</v>
@@ -26616,16 +26619,16 @@
         <v>2.2</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H18" s="46" t="b">
         <v>0</v>
@@ -26645,16 +26648,16 @@
         <v>2.2</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="G19" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H19" s="46" t="b">
         <v>0</v>
@@ -26677,13 +26680,13 @@
         <v>65</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="G20" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H20" s="46" t="b">
         <v>0</v>
@@ -26706,13 +26709,13 @@
         <v>65</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="G21" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H21" s="46" t="b">
         <v>0</v>
@@ -26735,13 +26738,13 @@
         <v>70</v>
       </c>
       <c r="E22" s="45" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="G22" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H22" s="46" t="b">
         <v>0</v>
@@ -26764,13 +26767,13 @@
         <v>73</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="F23" s="45" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="G23" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H23" s="46" t="b">
         <v>0</v>
@@ -26793,13 +26796,13 @@
         <v>73</v>
       </c>
       <c r="E24" s="45" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="G24" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H24" s="46" t="b">
         <v>0</v>
@@ -26816,19 +26819,19 @@
         <v>708</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="D25" s="45" t="s">
         <v>78</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="G25" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H25" s="46" t="b">
         <v>0</v>
@@ -26845,19 +26848,19 @@
         <v>708</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="D26" s="45" t="s">
         <v>78</v>
       </c>
       <c r="E26" s="45" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="G26" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H26" s="46" t="b">
         <v>0</v>
@@ -26874,19 +26877,19 @@
         <v>708</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="D27" s="45" t="s">
         <v>83</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="F27" s="45" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="G27" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H27" s="46" t="b">
         <v>0</v>
@@ -26903,19 +26906,19 @@
         <v>708</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="D28" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="F28" s="45" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="G28" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H28" s="46" t="b">
         <v>0</v>
@@ -26938,13 +26941,13 @@
         <v>90</v>
       </c>
       <c r="E29" s="45" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="F29" s="45" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="G29" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H29" s="46" t="b">
         <v>0</v>
@@ -26967,13 +26970,13 @@
         <v>90</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="G30" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H30" s="46" t="b">
         <v>0</v>
@@ -26993,16 +26996,16 @@
         <v>3.2</v>
       </c>
       <c r="D31" s="45" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="E31" s="45" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="G31" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H31" s="46" t="b">
         <v>0</v>
@@ -27022,16 +27025,16 @@
         <v>3.2</v>
       </c>
       <c r="D32" s="45" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="E32" s="45" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="G32" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H32" s="46" t="b">
         <v>0</v>
@@ -27054,13 +27057,13 @@
         <v>100</v>
       </c>
       <c r="E33" s="45" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="F33" s="45" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="G33" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H33" s="46" t="b">
         <v>0</v>
@@ -27083,13 +27086,13 @@
         <v>100</v>
       </c>
       <c r="E34" s="45" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="F34" s="45" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="G34" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H34" s="46" t="b">
         <v>0</v>
@@ -27112,13 +27115,13 @@
         <v>100</v>
       </c>
       <c r="E35" s="45" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="F35" s="45" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="G35" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H35" s="46" t="b">
         <v>0</v>
@@ -27141,13 +27144,13 @@
         <v>100</v>
       </c>
       <c r="E36" s="45" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="F36" s="45" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="G36" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H36" s="46" t="b">
         <v>0</v>
@@ -27170,13 +27173,13 @@
         <v>100</v>
       </c>
       <c r="E37" s="45" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="F37" s="45" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="G37" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H37" s="46" t="b">
         <v>0</v>
@@ -27199,13 +27202,13 @@
         <v>111</v>
       </c>
       <c r="E38" s="45" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="F38" s="45" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="G38" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H38" s="46" t="b">
         <v>0</v>
@@ -27228,13 +27231,13 @@
         <v>111</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="F39" s="45" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="G39" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H39" s="46" t="b">
         <v>0</v>
@@ -27257,13 +27260,13 @@
         <v>116</v>
       </c>
       <c r="E40" s="45" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="F40" s="45" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="G40" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H40" s="46" t="b">
         <v>0</v>
@@ -27286,13 +27289,13 @@
         <v>116</v>
       </c>
       <c r="E41" s="45" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="F41" s="45" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="G41" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H41" s="46" t="b">
         <v>0</v>
@@ -27315,13 +27318,13 @@
         <v>121</v>
       </c>
       <c r="E42" s="45" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="F42" s="45" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="G42" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H42" s="46" t="b">
         <v>0</v>
@@ -27344,13 +27347,13 @@
         <v>124</v>
       </c>
       <c r="E43" s="45" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="F43" s="45" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="G43" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H43" s="46" t="b">
         <v>0</v>
@@ -27373,13 +27376,13 @@
         <v>124</v>
       </c>
       <c r="E44" s="45" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="F44" s="45" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="G44" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H44" s="46" t="b">
         <v>0</v>
@@ -27402,13 +27405,13 @@
         <v>129</v>
       </c>
       <c r="E45" s="45" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="F45" s="45" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="G45" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H45" s="46" t="b">
         <v>0</v>
@@ -27431,13 +27434,13 @@
         <v>129</v>
       </c>
       <c r="E46" s="45" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="F46" s="45" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="G46" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H46" s="46" t="b">
         <v>0</v>
@@ -27460,13 +27463,13 @@
         <v>134</v>
       </c>
       <c r="E47" s="45" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="F47" s="45" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="G47" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H47" s="46" t="b">
         <v>0</v>
@@ -27489,13 +27492,13 @@
         <v>134</v>
       </c>
       <c r="E48" s="45" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="F48" s="45" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="G48" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H48" s="46" t="b">
         <v>0</v>
@@ -27518,13 +27521,13 @@
         <v>134</v>
       </c>
       <c r="E49" s="45" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="F49" s="45" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="G49" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H49" s="46" t="b">
         <v>0</v>
@@ -27541,19 +27544,19 @@
         <v>710</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="D50" s="45" t="s">
         <v>141</v>
       </c>
       <c r="E50" s="45" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="F50" s="45" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="G50" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H50" s="46" t="b">
         <v>0</v>
@@ -27570,19 +27573,19 @@
         <v>710</v>
       </c>
       <c r="C51" s="45" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="D51" s="45" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="E51" s="45" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="F51" s="45" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="G51" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H51" s="46" t="b">
         <v>0</v>
@@ -27599,19 +27602,19 @@
         <v>710</v>
       </c>
       <c r="C52" s="45" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="D52" s="45" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="E52" s="45" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="F52" s="45" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="G52" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H52" s="46" t="b">
         <v>0</v>
@@ -27628,19 +27631,19 @@
         <v>710</v>
       </c>
       <c r="C53" s="45" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="D53" s="45" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="E53" s="45" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="F53" s="45" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="G53" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H53" s="46" t="b">
         <v>0</v>
@@ -27657,19 +27660,19 @@
         <v>710</v>
       </c>
       <c r="C54" s="45" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="D54" s="45" t="s">
         <v>151</v>
       </c>
       <c r="E54" s="45" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="F54" s="45" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="G54" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H54" s="46" t="b">
         <v>0</v>
@@ -27686,19 +27689,19 @@
         <v>710</v>
       </c>
       <c r="C55" s="45" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="D55" s="45" t="s">
         <v>154</v>
       </c>
       <c r="E55" s="45" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="F55" s="45" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G55" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H55" s="46" t="b">
         <v>0</v>
@@ -27715,19 +27718,19 @@
         <v>710</v>
       </c>
       <c r="C56" s="45" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="D56" s="45" t="s">
         <v>154</v>
       </c>
       <c r="E56" s="45" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="F56" s="45" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="G56" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H56" s="46" t="b">
         <v>0</v>
@@ -27750,13 +27753,13 @@
         <v>160</v>
       </c>
       <c r="E57" s="45" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="F57" s="45" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="G57" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H57" s="46" t="b">
         <v>0</v>
@@ -27779,13 +27782,13 @@
         <v>160</v>
       </c>
       <c r="E58" s="45" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="F58" s="45" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="G58" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H58" s="46" t="b">
         <v>0</v>
@@ -27805,16 +27808,16 @@
         <v>4.2</v>
       </c>
       <c r="D59" s="45" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="E59" s="45" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="F59" s="45" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="G59" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H59" s="46" t="b">
         <v>0</v>
@@ -27834,16 +27837,16 @@
         <v>4.2</v>
       </c>
       <c r="D60" s="45" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="E60" s="45" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="F60" s="45" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="G60" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H60" s="46" t="b">
         <v>0</v>
@@ -27866,13 +27869,13 @@
         <v>170</v>
       </c>
       <c r="E61" s="45" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="F61" s="45" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="G61" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H61" s="46" t="b">
         <v>0</v>
@@ -27895,13 +27898,13 @@
         <v>173</v>
       </c>
       <c r="E62" s="45" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="F62" s="45" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="G62" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H62" s="46" t="b">
         <v>0</v>
@@ -27924,13 +27927,13 @@
         <v>176</v>
       </c>
       <c r="E63" s="45" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="F63" s="45" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="G63" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H63" s="46" t="b">
         <v>0</v>
@@ -27953,13 +27956,13 @@
         <v>179</v>
       </c>
       <c r="E64" s="45" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="F64" s="45" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="G64" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H64" s="46" t="b">
         <v>0</v>
@@ -27982,13 +27985,13 @@
         <v>182</v>
       </c>
       <c r="E65" s="45" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="F65" s="45" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="G65" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H65" s="46" t="b">
         <v>0</v>
@@ -28005,19 +28008,19 @@
         <v>712</v>
       </c>
       <c r="C66" s="45" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="D66" s="45" t="s">
         <v>185</v>
       </c>
       <c r="E66" s="45" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="F66" s="45" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="G66" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H66" s="46" t="b">
         <v>0</v>
@@ -28034,19 +28037,19 @@
         <v>712</v>
       </c>
       <c r="C67" s="45" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="D67" s="45" t="s">
         <v>188</v>
       </c>
       <c r="E67" s="45" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="F67" s="45" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="G67" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H67" s="46" t="b">
         <v>0</v>
@@ -28063,19 +28066,19 @@
         <v>712</v>
       </c>
       <c r="C68" s="45" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="D68" s="45" t="s">
         <v>191</v>
       </c>
       <c r="E68" s="45" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="F68" s="45" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="G68" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H68" s="46" t="b">
         <v>0</v>
@@ -28098,13 +28101,13 @@
         <v>195</v>
       </c>
       <c r="E69" s="45" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="F69" s="45" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="G69" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H69" s="46" t="b">
         <v>0</v>
@@ -28127,13 +28130,13 @@
         <v>198</v>
       </c>
       <c r="E70" s="45" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="F70" s="45" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="G70" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H70" s="46" t="b">
         <v>0</v>
@@ -28156,13 +28159,13 @@
         <v>198</v>
       </c>
       <c r="E71" s="45" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="F71" s="45" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="G71" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H71" s="46" t="b">
         <v>0</v>
@@ -28185,13 +28188,13 @@
         <v>203</v>
       </c>
       <c r="E72" s="45" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="F72" s="45" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="G72" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H72" s="46" t="b">
         <v>0</v>
@@ -28214,13 +28217,13 @@
         <v>203</v>
       </c>
       <c r="E73" s="45" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="F73" s="45" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="G73" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H73" s="46" t="b">
         <v>0</v>
@@ -28243,13 +28246,13 @@
         <v>208</v>
       </c>
       <c r="E74" s="45" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="F74" s="45" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="G74" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H74" s="46" t="b">
         <v>0</v>
@@ -28272,13 +28275,13 @@
         <v>211</v>
       </c>
       <c r="E75" s="45" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="F75" s="45" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="G75" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H75" s="46" t="b">
         <v>0</v>
@@ -28301,13 +28304,13 @@
         <v>211</v>
       </c>
       <c r="E76" s="45" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="F76" s="45" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G76" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H76" s="46" t="b">
         <v>0</v>
@@ -28330,13 +28333,13 @@
         <v>216</v>
       </c>
       <c r="E77" s="45" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="F77" s="45" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="G77" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H77" s="46" t="b">
         <v>0</v>
@@ -28359,13 +28362,13 @@
         <v>216</v>
       </c>
       <c r="E78" s="45" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="F78" s="45" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="G78" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H78" s="46" t="b">
         <v>0</v>
@@ -28382,19 +28385,19 @@
         <v>714</v>
       </c>
       <c r="C79" s="45" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="D79" s="45" t="s">
         <v>221</v>
       </c>
       <c r="E79" s="45" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="F79" s="45" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="G79" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H79" s="46" t="b">
         <v>0</v>
@@ -28411,19 +28414,19 @@
         <v>714</v>
       </c>
       <c r="C80" s="45" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="D80" s="45" t="s">
         <v>221</v>
       </c>
       <c r="E80" s="45" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="F80" s="45" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="G80" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H80" s="46" t="b">
         <v>0</v>
@@ -28440,19 +28443,19 @@
         <v>714</v>
       </c>
       <c r="C81" s="45" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="D81" s="45" t="s">
         <v>226</v>
       </c>
       <c r="E81" s="45" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="F81" s="45" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="G81" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H81" s="46" t="b">
         <v>0</v>
@@ -28469,19 +28472,19 @@
         <v>714</v>
       </c>
       <c r="C82" s="45" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="D82" s="45" t="s">
         <v>229</v>
       </c>
       <c r="E82" s="45" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="F82" s="45" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="G82" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H82" s="46" t="b">
         <v>0</v>
@@ -28504,13 +28507,13 @@
         <v>233</v>
       </c>
       <c r="E83" s="45" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="F83" s="45" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="G83" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H83" s="46" t="b">
         <v>0</v>
@@ -28533,13 +28536,13 @@
         <v>236</v>
       </c>
       <c r="E84" s="45" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="F84" s="45" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="G84" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H84" s="46" t="b">
         <v>0</v>
@@ -28562,13 +28565,13 @@
         <v>239</v>
       </c>
       <c r="E85" s="45" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="F85" s="45" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="G85" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H85" s="46" t="b">
         <v>0</v>
@@ -28591,13 +28594,13 @@
         <v>239</v>
       </c>
       <c r="E86" s="45" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="F86" s="45" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="G86" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H86" s="46" t="b">
         <v>0</v>
@@ -28620,13 +28623,13 @@
         <v>244</v>
       </c>
       <c r="E87" s="45" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="F87" s="45" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="G87" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H87" s="46" t="b">
         <v>0</v>
@@ -28649,13 +28652,13 @@
         <v>244</v>
       </c>
       <c r="E88" s="45" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="F88" s="45" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="G88" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H88" s="46" t="b">
         <v>0</v>
@@ -28678,13 +28681,13 @@
         <v>249</v>
       </c>
       <c r="E89" s="45" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="F89" s="45" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="G89" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H89" s="46" t="b">
         <v>0</v>
@@ -28707,13 +28710,13 @@
         <v>249</v>
       </c>
       <c r="E90" s="45" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="F90" s="45" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="G90" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H90" s="46" t="b">
         <v>0</v>
@@ -28736,13 +28739,13 @@
         <v>254</v>
       </c>
       <c r="E91" s="45" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="F91" s="45" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="G91" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H91" s="46" t="b">
         <v>0</v>
@@ -28759,19 +28762,19 @@
         <v>716</v>
       </c>
       <c r="C92" s="45" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="D92" s="45" t="s">
         <v>257</v>
       </c>
       <c r="E92" s="45" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="F92" s="45" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="G92" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H92" s="46" t="b">
         <v>0</v>
@@ -28788,19 +28791,19 @@
         <v>716</v>
       </c>
       <c r="C93" s="45" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="D93" s="45" t="s">
         <v>260</v>
       </c>
       <c r="E93" s="45" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="F93" s="45" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="G93" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H93" s="46" t="b">
         <v>0</v>
@@ -28823,13 +28826,13 @@
         <v>264</v>
       </c>
       <c r="E94" s="45" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="F94" s="45" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="G94" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H94" s="46" t="b">
         <v>0</v>
@@ -28852,13 +28855,13 @@
         <v>264</v>
       </c>
       <c r="E95" s="45" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="F95" s="45" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="G95" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H95" s="46" t="b">
         <v>0</v>
@@ -28881,13 +28884,13 @@
         <v>269</v>
       </c>
       <c r="E96" s="45" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="F96" s="45" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="G96" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H96" s="46" t="b">
         <v>0</v>
@@ -28910,13 +28913,13 @@
         <v>272</v>
       </c>
       <c r="E97" s="45" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="F97" s="45" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="G97" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H97" s="46" t="b">
         <v>0</v>
@@ -28933,19 +28936,19 @@
         <v>718</v>
       </c>
       <c r="C98" s="45" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="D98" s="45" t="s">
         <v>275</v>
       </c>
       <c r="E98" s="45" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="F98" s="45" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="G98" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H98" s="46" t="b">
         <v>0</v>
@@ -28962,19 +28965,19 @@
         <v>718</v>
       </c>
       <c r="C99" s="45" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="D99" s="45" t="s">
         <v>278</v>
       </c>
       <c r="E99" s="45" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="F99" s="45" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="G99" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H99" s="46" t="b">
         <v>0</v>
@@ -28994,16 +28997,16 @@
         <v>8.1</v>
       </c>
       <c r="D100" s="45" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="E100" s="45" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="F100" s="45" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="G100" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H100" s="46" t="b">
         <v>0</v>
@@ -29026,13 +29029,13 @@
         <v>285</v>
       </c>
       <c r="E101" s="45" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="F101" s="45" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="G101" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H101" s="46" t="b">
         <v>0</v>
@@ -29055,13 +29058,13 @@
         <v>288</v>
       </c>
       <c r="E102" s="45" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="F102" s="45" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="G102" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H102" s="46" t="b">
         <v>0</v>
@@ -29081,16 +29084,16 @@
         <v>8.4</v>
       </c>
       <c r="D103" s="45" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="E103" s="45" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="F103" s="45" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="G103" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H103" s="46" t="b">
         <v>0</v>
@@ -29110,16 +29113,16 @@
         <v>8.4</v>
       </c>
       <c r="D104" s="45" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="E104" s="45" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="F104" s="45" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="G104" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H104" s="46" t="b">
         <v>0</v>
@@ -29142,13 +29145,13 @@
         <v>296</v>
       </c>
       <c r="E105" s="45" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="F105" s="45" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="G105" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H105" s="46" t="b">
         <v>0</v>
@@ -29171,13 +29174,13 @@
         <v>296</v>
       </c>
       <c r="E106" s="45" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="F106" s="45" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="G106" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H106" s="46" t="b">
         <v>0</v>
@@ -29200,13 +29203,13 @@
         <v>301</v>
       </c>
       <c r="E107" s="45" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="F107" s="45" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="G107" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H107" s="46" t="b">
         <v>0</v>
@@ -29226,16 +29229,16 @@
         <v>8.7</v>
       </c>
       <c r="D108" s="45" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E108" s="45" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="F108" s="45" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="G108" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H108" s="46" t="b">
         <v>0</v>
@@ -29258,13 +29261,13 @@
         <v>307</v>
       </c>
       <c r="E109" s="45" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="F109" s="45" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="G109" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H109" s="46" t="b">
         <v>0</v>
@@ -29287,13 +29290,13 @@
         <v>307</v>
       </c>
       <c r="E110" s="45" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="F110" s="45" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="G110" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H110" s="46" t="b">
         <v>0</v>
@@ -29316,13 +29319,13 @@
         <v>312</v>
       </c>
       <c r="E111" s="45" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="F111" s="45" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="G111" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H111" s="46" t="b">
         <v>0</v>
@@ -29345,13 +29348,13 @@
         <v>315</v>
       </c>
       <c r="E112" s="45" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="F112" s="45" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="G112" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H112" s="46" t="b">
         <v>0</v>
@@ -29374,13 +29377,13 @@
         <v>315</v>
       </c>
       <c r="E113" s="45" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="F113" s="45" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="G113" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H113" s="46" t="b">
         <v>0</v>
@@ -29397,19 +29400,19 @@
         <v>720</v>
       </c>
       <c r="C114" s="45" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="D114" s="45" t="s">
         <v>320</v>
       </c>
       <c r="E114" s="45" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="F114" s="45" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="G114" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H114" s="46" t="b">
         <v>0</v>
@@ -29426,19 +29429,19 @@
         <v>720</v>
       </c>
       <c r="C115" s="45" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="D115" s="45" t="s">
         <v>323</v>
       </c>
       <c r="E115" s="45" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="F115" s="45" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="G115" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H115" s="46" t="b">
         <v>0</v>
@@ -29461,13 +29464,13 @@
         <v>327</v>
       </c>
       <c r="E116" s="45" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="F116" s="45" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="G116" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H116" s="46" t="b">
         <v>0</v>
@@ -29490,13 +29493,13 @@
         <v>327</v>
       </c>
       <c r="E117" s="45" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="F117" s="45" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="G117" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H117" s="46" t="b">
         <v>0</v>
@@ -29519,13 +29522,13 @@
         <v>332</v>
       </c>
       <c r="E118" s="45" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="F118" s="45" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="G118" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H118" s="46" t="b">
         <v>0</v>
@@ -29548,13 +29551,13 @@
         <v>332</v>
       </c>
       <c r="E119" s="45" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="F119" s="45" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="G119" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H119" s="46" t="b">
         <v>0</v>
@@ -29577,13 +29580,13 @@
         <v>337</v>
       </c>
       <c r="E120" s="45" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="F120" s="45" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="G120" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H120" s="46" t="b">
         <v>0</v>
@@ -29606,13 +29609,13 @@
         <v>337</v>
       </c>
       <c r="E121" s="45" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="F121" s="45" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="G121" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H121" s="46" t="b">
         <v>0</v>
@@ -29635,13 +29638,13 @@
         <v>342</v>
       </c>
       <c r="E122" s="45" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="F122" s="45" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="G122" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H122" s="46" t="b">
         <v>0</v>
@@ -29661,16 +29664,16 @@
         <v>9.5</v>
       </c>
       <c r="D123" s="45" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="E123" s="45" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="F123" s="45" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="G123" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H123" s="46" t="b">
         <v>0</v>
@@ -29690,16 +29693,16 @@
         <v>9.5</v>
       </c>
       <c r="D124" s="45" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="E124" s="45" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="F124" s="45" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="G124" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H124" s="46" t="b">
         <v>0</v>
@@ -29716,19 +29719,19 @@
         <v>722</v>
       </c>
       <c r="C125" s="45" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="D125" s="45" t="s">
         <v>350</v>
       </c>
       <c r="E125" s="45" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="F125" s="45" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="G125" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H125" s="46" t="b">
         <v>0</v>
@@ -29745,19 +29748,19 @@
         <v>722</v>
       </c>
       <c r="C126" s="45" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="D126" s="45" t="s">
         <v>353</v>
       </c>
       <c r="E126" s="45" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="F126" s="45" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="G126" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H126" s="46" t="b">
         <v>0</v>
@@ -29774,19 +29777,19 @@
         <v>722</v>
       </c>
       <c r="C127" s="45" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="D127" s="45" t="s">
         <v>356</v>
       </c>
       <c r="E127" s="45" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="F127" s="45" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="G127" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H127" s="46" t="b">
         <v>0</v>
@@ -29806,16 +29809,16 @@
         <v>10.1</v>
       </c>
       <c r="D128" s="45" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="E128" s="45" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="F128" s="45" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="G128" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H128" s="46" t="b">
         <v>0</v>
@@ -29838,13 +29841,13 @@
         <v>363</v>
       </c>
       <c r="E129" s="45" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F129" s="45" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="G129" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H129" s="46" t="b">
         <v>0</v>
@@ -29867,13 +29870,13 @@
         <v>366</v>
       </c>
       <c r="E130" s="45" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="F130" s="45" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="G130" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H130" s="46" t="b">
         <v>0</v>
@@ -29896,13 +29899,13 @@
         <v>369</v>
       </c>
       <c r="E131" s="45" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="F131" s="45" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="G131" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H131" s="46" t="b">
         <v>0</v>
@@ -29925,13 +29928,13 @@
         <v>369</v>
       </c>
       <c r="E132" s="45" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="F132" s="45" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="G132" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H132" s="46" t="b">
         <v>0</v>
@@ -29954,13 +29957,13 @@
         <v>374</v>
       </c>
       <c r="E133" s="45" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="F133" s="45" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="G133" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H133" s="46" t="b">
         <v>0</v>
@@ -29983,13 +29986,13 @@
         <v>377</v>
       </c>
       <c r="E134" s="45" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="F134" s="45" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="G134" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H134" s="46" t="b">
         <v>0</v>
@@ -30012,13 +30015,13 @@
         <v>380</v>
       </c>
       <c r="E135" s="45" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="F135" s="45" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="G135" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H135" s="46" t="b">
         <v>0</v>
@@ -30041,13 +30044,13 @@
         <v>380</v>
       </c>
       <c r="E136" s="45" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="F136" s="45" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="G136" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H136" s="46" t="b">
         <v>0</v>
@@ -30070,13 +30073,13 @@
         <v>380</v>
       </c>
       <c r="E137" s="45" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="F137" s="45" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="G137" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H137" s="46" t="b">
         <v>0</v>
@@ -30099,13 +30102,13 @@
         <v>380</v>
       </c>
       <c r="E138" s="45" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="F138" s="45" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="G138" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H138" s="46" t="b">
         <v>0</v>
@@ -30122,19 +30125,19 @@
         <v>724</v>
       </c>
       <c r="C139" s="45" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="D139" s="45" t="s">
         <v>389</v>
       </c>
       <c r="E139" s="45" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="F139" s="45" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="G139" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H139" s="46" t="b">
         <v>0</v>
@@ -30151,19 +30154,19 @@
         <v>724</v>
       </c>
       <c r="C140" s="45" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="D140" s="45" t="s">
         <v>392</v>
       </c>
       <c r="E140" s="45" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="F140" s="45" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="G140" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H140" s="46" t="b">
         <v>0</v>
@@ -30180,19 +30183,19 @@
         <v>724</v>
       </c>
       <c r="C141" s="45" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="D141" s="45" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="E141" s="45" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="F141" s="45" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="G141" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H141" s="46" t="b">
         <v>0</v>
@@ -30215,13 +30218,13 @@
         <v>399</v>
       </c>
       <c r="E142" s="45" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="F142" s="45" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="G142" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H142" s="46" t="b">
         <v>0</v>
@@ -30244,13 +30247,13 @@
         <v>402</v>
       </c>
       <c r="E143" s="45" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="F143" s="45" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="G143" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H143" s="46" t="b">
         <v>0</v>
@@ -30273,13 +30276,13 @@
         <v>405</v>
       </c>
       <c r="E144" s="45" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="F144" s="45" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="G144" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H144" s="46" t="b">
         <v>0</v>
@@ -30302,13 +30305,13 @@
         <v>405</v>
       </c>
       <c r="E145" s="45" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="F145" s="45" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="G145" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H145" s="46" t="b">
         <v>0</v>
@@ -30331,13 +30334,13 @@
         <v>410</v>
       </c>
       <c r="E146" s="45" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="F146" s="45" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="G146" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H146" s="46" t="b">
         <v>0</v>
@@ -30360,13 +30363,13 @@
         <v>413</v>
       </c>
       <c r="E147" s="45" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="F147" s="45" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="G147" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H147" s="46" t="b">
         <v>1</v>
@@ -30389,13 +30392,13 @@
         <v>413</v>
       </c>
       <c r="E148" s="45" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="F148" s="45" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="G148" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H148" s="46" t="b">
         <v>1</v>
@@ -30418,13 +30421,13 @@
         <v>413</v>
       </c>
       <c r="E149" s="45" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="F149" s="45" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="G149" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H149" s="46" t="b">
         <v>0</v>
@@ -30447,13 +30450,13 @@
         <v>418</v>
       </c>
       <c r="E150" s="45" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="F150" s="45" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="G150" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H150" s="46" t="b">
         <v>0</v>
@@ -30476,13 +30479,13 @@
         <v>418</v>
       </c>
       <c r="E151" s="45" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="F151" s="45" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="G151" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H151" s="46" t="b">
         <v>0</v>
@@ -30505,13 +30508,13 @@
         <v>423</v>
       </c>
       <c r="E152" s="45" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="F152" s="45" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="G152" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H152" s="46" t="b">
         <v>0</v>
@@ -30534,13 +30537,13 @@
         <v>423</v>
       </c>
       <c r="E153" s="45" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="F153" s="45" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="G153" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H153" s="46" t="b">
         <v>0</v>
@@ -30557,19 +30560,19 @@
         <v>726</v>
       </c>
       <c r="C154" s="45" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="D154" s="45" t="s">
         <v>428</v>
       </c>
       <c r="E154" s="45" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="F154" s="45" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="G154" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H154" s="46" t="b">
         <v>0</v>
@@ -30586,19 +30589,19 @@
         <v>726</v>
       </c>
       <c r="C155" s="45" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D155" s="45" t="s">
         <v>431</v>
       </c>
       <c r="E155" s="45" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="F155" s="45" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="G155" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H155" s="46" t="b">
         <v>1</v>
@@ -30615,19 +30618,19 @@
         <v>726</v>
       </c>
       <c r="C156" s="45" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D156" s="45" t="s">
         <v>431</v>
       </c>
       <c r="E156" s="45" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="F156" s="45" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="G156" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H156" s="46" t="b">
         <v>1</v>
@@ -30644,19 +30647,19 @@
         <v>726</v>
       </c>
       <c r="C157" s="45" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="D157" s="45" t="s">
         <v>434</v>
       </c>
       <c r="E157" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F157" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="G157" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H157" s="46" t="b">
         <v>0</v>
@@ -30676,16 +30679,16 @@
         <v>12.1</v>
       </c>
       <c r="D158" s="45" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="E158" s="45" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="F158" s="45" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="G158" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H158" s="46" t="b">
         <v>0</v>
@@ -30708,13 +30711,13 @@
         <v>440</v>
       </c>
       <c r="E159" s="45" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="F159" s="45" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="G159" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H159" s="46" t="b">
         <v>1</v>
@@ -30737,13 +30740,13 @@
         <v>440</v>
       </c>
       <c r="E160" s="45" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="F160" s="45" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="G160" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H160" s="46" t="b">
         <v>1</v>
@@ -30766,13 +30769,13 @@
         <v>443</v>
       </c>
       <c r="E161" s="45" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="F161" s="45" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="G161" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H161" s="46" t="b">
         <v>0</v>
@@ -30795,13 +30798,13 @@
         <v>446</v>
       </c>
       <c r="E162" s="45" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="F162" s="45" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="G162" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H162" s="46" t="b">
         <v>0</v>
@@ -30824,13 +30827,13 @@
         <v>446</v>
       </c>
       <c r="E163" s="45" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="F163" s="45" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="G163" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H163" s="46" t="b">
         <v>0</v>
@@ -30853,13 +30856,13 @@
         <v>451</v>
       </c>
       <c r="E164" s="45" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="F164" s="45" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="G164" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H164" s="46" t="b">
         <v>0</v>
@@ -30882,13 +30885,13 @@
         <v>454</v>
       </c>
       <c r="E165" s="45" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="F165" s="45" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="G165" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H165" s="46" t="b">
         <v>0</v>
@@ -30911,13 +30914,13 @@
         <v>457</v>
       </c>
       <c r="E166" s="45" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="F166" s="45" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="G166" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H166" s="46" t="b">
         <v>0</v>
@@ -30940,13 +30943,13 @@
         <v>460</v>
       </c>
       <c r="E167" s="45" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="F167" s="45" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="G167" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H167" s="46" t="b">
         <v>1</v>
@@ -30963,19 +30966,19 @@
         <v>728</v>
       </c>
       <c r="C168" s="45" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="D168" s="45" t="s">
         <v>462</v>
       </c>
       <c r="E168" s="45" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="F168" s="45" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="G168" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H168" s="46" t="b">
         <v>1</v>
@@ -30992,19 +30995,19 @@
         <v>728</v>
       </c>
       <c r="C169" s="45" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="D169" s="45" t="s">
         <v>464</v>
       </c>
       <c r="E169" s="45" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="F169" s="45" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="G169" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H169" s="46" t="b">
         <v>0</v>
@@ -31021,19 +31024,19 @@
         <v>728</v>
       </c>
       <c r="C170" s="45" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="D170" s="45" t="s">
         <v>467</v>
       </c>
       <c r="E170" s="45" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="F170" s="45" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="G170" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H170" s="46" t="b">
         <v>0</v>
@@ -31056,13 +31059,13 @@
         <v>471</v>
       </c>
       <c r="E171" s="45" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="F171" s="45" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="G171" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H171" s="46" t="b">
         <v>1</v>
@@ -31085,13 +31088,13 @@
         <v>471</v>
       </c>
       <c r="E172" s="45" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="F172" s="45" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="G172" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H172" s="46" t="b">
         <v>1</v>
@@ -31114,13 +31117,13 @@
         <v>471</v>
       </c>
       <c r="E173" s="45" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="F173" s="45" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="G173" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H173" s="46" t="b">
         <v>1</v>
@@ -31143,13 +31146,13 @@
         <v>475</v>
       </c>
       <c r="E174" s="45" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="F174" s="45" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="G174" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H174" s="46" t="b">
         <v>0</v>
@@ -31172,13 +31175,13 @@
         <v>475</v>
       </c>
       <c r="E175" s="45" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="F175" s="45" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="G175" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H175" s="46" t="b">
         <v>0</v>
@@ -31201,13 +31204,13 @@
         <v>480</v>
       </c>
       <c r="E176" s="45" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="F176" s="45" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="G176" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H176" s="46" t="b">
         <v>1</v>
@@ -31224,19 +31227,19 @@
         <v>730</v>
       </c>
       <c r="C177" s="45" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="D177" s="45" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="E177" s="45" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="F177" s="45" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="G177" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H177" s="46" t="b">
         <v>0</v>
@@ -31253,19 +31256,19 @@
         <v>730</v>
       </c>
       <c r="C178" s="45" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="D178" s="45" t="s">
         <v>485</v>
       </c>
       <c r="E178" s="45" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="F178" s="45" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="G178" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H178" s="46" t="b">
         <v>0</v>
@@ -31288,13 +31291,13 @@
         <v>489</v>
       </c>
       <c r="E179" s="45" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="F179" s="45" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="G179" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H179" s="46" t="b">
         <v>0</v>
@@ -31317,13 +31320,13 @@
         <v>492</v>
       </c>
       <c r="E180" s="45" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="F180" s="45" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="G180" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H180" s="46" t="b">
         <v>0</v>
@@ -31346,13 +31349,13 @@
         <v>495</v>
       </c>
       <c r="E181" s="45" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="F181" s="45" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="G181" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H181" s="46" t="b">
         <v>0</v>
@@ -31375,13 +31378,13 @@
         <v>498</v>
       </c>
       <c r="E182" s="45" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="F182" s="45" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="G182" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H182" s="46" t="b">
         <v>0</v>
@@ -31401,16 +31404,16 @@
         <v>14.5</v>
       </c>
       <c r="D183" s="45" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="E183" s="45" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="F183" s="45" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="G183" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H183" s="46" t="b">
         <v>0</v>
@@ -31433,13 +31436,13 @@
         <v>702</v>
       </c>
       <c r="E184" s="45" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="F184" s="45" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="G184" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H184" s="46" t="b">
         <v>0</v>
@@ -31462,13 +31465,13 @@
         <v>507</v>
       </c>
       <c r="E185" s="45" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="F185" s="45" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="G185" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H185" s="46" t="b">
         <v>0</v>
@@ -31485,19 +31488,19 @@
         <v>732</v>
       </c>
       <c r="C186" s="45" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="D186" s="45" t="s">
         <v>510</v>
       </c>
       <c r="E186" s="45" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="F186" s="45" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="G186" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H186" s="46" t="b">
         <v>0</v>
@@ -31514,19 +31517,19 @@
         <v>732</v>
       </c>
       <c r="C187" s="45" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D187" s="45" t="s">
         <v>513</v>
       </c>
       <c r="E187" s="45" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="F187" s="45" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="G187" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H187" s="46" t="b">
         <v>0</v>
@@ -31543,19 +31546,19 @@
         <v>732</v>
       </c>
       <c r="C188" s="45" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D188" s="45" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E188" s="45" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="F188" s="45" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="G188" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H188" s="46" t="b">
         <v>0</v>
@@ -31569,7 +31572,7 @@
         <v>15.0</v>
       </c>
       <c r="B189" s="45" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C189" s="44">
         <v>15.1</v>
@@ -31578,13 +31581,13 @@
         <v>520</v>
       </c>
       <c r="E189" s="45" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="F189" s="45" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G189" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H189" s="46" t="b">
         <v>0</v>
@@ -31598,7 +31601,7 @@
         <v>15.0</v>
       </c>
       <c r="B190" s="45" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C190" s="44">
         <v>15.1</v>
@@ -31607,13 +31610,13 @@
         <v>520</v>
       </c>
       <c r="E190" s="45" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="F190" s="45" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="G190" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H190" s="46" t="b">
         <v>0</v>
@@ -31627,7 +31630,7 @@
         <v>15.0</v>
       </c>
       <c r="B191" s="45" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C191" s="44">
         <v>15.2</v>
@@ -31636,13 +31639,13 @@
         <v>525</v>
       </c>
       <c r="E191" s="45" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F191" s="45" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="G191" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H191" s="46" t="b">
         <v>0</v>
@@ -31656,7 +31659,7 @@
         <v>15.0</v>
       </c>
       <c r="B192" s="45" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C192" s="44">
         <v>15.3</v>
@@ -31665,13 +31668,13 @@
         <v>528</v>
       </c>
       <c r="E192" s="45" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F192" s="45" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G192" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H192" s="46" t="b">
         <v>0</v>
@@ -31685,7 +31688,7 @@
         <v>15.0</v>
       </c>
       <c r="B193" s="45" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C193" s="44">
         <v>15.4</v>
@@ -31694,13 +31697,13 @@
         <v>531</v>
       </c>
       <c r="E193" s="45" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F193" s="45" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G193" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H193" s="46" t="b">
         <v>0</v>
@@ -31714,7 +31717,7 @@
         <v>15.0</v>
       </c>
       <c r="B194" s="45" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C194" s="44">
         <v>15.4</v>
@@ -31723,13 +31726,13 @@
         <v>531</v>
       </c>
       <c r="E194" s="45" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F194" s="45" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G194" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H194" s="46" t="b">
         <v>0</v>
@@ -31743,7 +31746,7 @@
         <v>15.0</v>
       </c>
       <c r="B195" s="45" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C195" s="44">
         <v>15.5</v>
@@ -31752,13 +31755,13 @@
         <v>536</v>
       </c>
       <c r="E195" s="45" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F195" s="45" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G195" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H195" s="46" t="b">
         <v>0</v>
@@ -31772,7 +31775,7 @@
         <v>15.0</v>
       </c>
       <c r="B196" s="45" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C196" s="44">
         <v>15.6</v>
@@ -31781,13 +31784,13 @@
         <v>539</v>
       </c>
       <c r="E196" s="45" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F196" s="45" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G196" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H196" s="46" t="b">
         <v>0</v>
@@ -31801,7 +31804,7 @@
         <v>15.0</v>
       </c>
       <c r="B197" s="45" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C197" s="44">
         <v>15.7</v>
@@ -31810,13 +31813,13 @@
         <v>542</v>
       </c>
       <c r="E197" s="45" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F197" s="45" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G197" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H197" s="46" t="b">
         <v>0</v>
@@ -31830,7 +31833,7 @@
         <v>15.0</v>
       </c>
       <c r="B198" s="48" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C198" s="47">
         <v>15.8</v>
@@ -31839,13 +31842,13 @@
         <v>545</v>
       </c>
       <c r="E198" s="48" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="F198" s="48" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="G198" s="48" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H198" s="49" t="b">
         <v>0</v>
@@ -31876,7 +31879,7 @@
         <v>15.0</v>
       </c>
       <c r="B199" s="45" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C199" s="44">
         <v>15.9</v>
@@ -31885,13 +31888,13 @@
         <v>548</v>
       </c>
       <c r="E199" s="45" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="F199" s="45" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="G199" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H199" s="46" t="b">
         <v>0</v>
@@ -31905,22 +31908,22 @@
         <v>15.0</v>
       </c>
       <c r="B200" s="45" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C200" s="45" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="D200" s="45" t="s">
         <v>551</v>
       </c>
       <c r="E200" s="45" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="F200" s="45" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="G200" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H200" s="46" t="b">
         <v>0</v>
@@ -31934,22 +31937,22 @@
         <v>15.0</v>
       </c>
       <c r="B201" s="45" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C201" s="45" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="D201" s="45" t="s">
         <v>554</v>
       </c>
       <c r="E201" s="45" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="F201" s="45" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="G201" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H201" s="46" t="b">
         <v>1</v>
@@ -31963,22 +31966,22 @@
         <v>15.0</v>
       </c>
       <c r="B202" s="45" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C202" s="45" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="D202" s="45" t="s">
         <v>556</v>
       </c>
       <c r="E202" s="45" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="F202" s="45" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G202" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H202" s="46" t="b">
         <v>1</v>
@@ -31992,7 +31995,7 @@
         <v>16.0</v>
       </c>
       <c r="B203" s="45" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C203" s="44">
         <v>16.1</v>
@@ -32001,13 +32004,13 @@
         <v>559</v>
       </c>
       <c r="E203" s="45" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="F203" s="45" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="G203" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H203" s="46" t="b">
         <v>0</v>
@@ -32021,7 +32024,7 @@
         <v>16.0</v>
       </c>
       <c r="B204" s="45" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C204" s="44">
         <v>16.1</v>
@@ -32030,13 +32033,13 @@
         <v>559</v>
       </c>
       <c r="E204" s="45" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="F204" s="45" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="G204" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H204" s="46" t="b">
         <v>0</v>
@@ -32050,7 +32053,7 @@
         <v>16.0</v>
       </c>
       <c r="B205" s="45" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C205" s="44">
         <v>16.1</v>
@@ -32059,13 +32062,13 @@
         <v>559</v>
       </c>
       <c r="E205" s="45" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="F205" s="45" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="G205" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H205" s="46" t="b">
         <v>0</v>
@@ -32079,7 +32082,7 @@
         <v>16.0</v>
       </c>
       <c r="B206" s="45" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C206" s="44">
         <v>16.1</v>
@@ -32088,13 +32091,13 @@
         <v>559</v>
       </c>
       <c r="E206" s="45" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="F206" s="45" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="G206" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H206" s="46" t="b">
         <v>0</v>
@@ -32108,7 +32111,7 @@
         <v>16.0</v>
       </c>
       <c r="B207" s="45" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C207" s="44">
         <v>16.2</v>
@@ -32117,13 +32120,13 @@
         <v>568</v>
       </c>
       <c r="E207" s="45" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="F207" s="45" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="G207" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H207" s="46" t="b">
         <v>0</v>
@@ -32137,7 +32140,7 @@
         <v>16.0</v>
       </c>
       <c r="B208" s="45" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C208" s="44">
         <v>16.2</v>
@@ -32146,13 +32149,13 @@
         <v>568</v>
       </c>
       <c r="E208" s="45" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="F208" s="45" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="G208" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H208" s="46" t="b">
         <v>0</v>
@@ -32166,7 +32169,7 @@
         <v>16.0</v>
       </c>
       <c r="B209" s="45" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C209" s="44">
         <v>16.2</v>
@@ -32175,13 +32178,13 @@
         <v>568</v>
       </c>
       <c r="E209" s="45" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="F209" s="45" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="G209" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H209" s="46" t="b">
         <v>0</v>
@@ -32195,7 +32198,7 @@
         <v>16.0</v>
       </c>
       <c r="B210" s="45" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C210" s="44">
         <v>16.3</v>
@@ -32204,13 +32207,13 @@
         <v>575</v>
       </c>
       <c r="E210" s="45" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="F210" s="45" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="G210" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H210" s="46" t="b">
         <v>0</v>
@@ -32224,7 +32227,7 @@
         <v>16.0</v>
       </c>
       <c r="B211" s="45" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C211" s="44">
         <v>16.3</v>
@@ -32233,13 +32236,13 @@
         <v>575</v>
       </c>
       <c r="E211" s="45" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="F211" s="45" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="G211" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H211" s="46" t="b">
         <v>0</v>
@@ -32253,7 +32256,7 @@
         <v>16.0</v>
       </c>
       <c r="B212" s="45" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C212" s="44">
         <v>16.3</v>
@@ -32262,13 +32265,13 @@
         <v>575</v>
       </c>
       <c r="E212" s="45" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="F212" s="45" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="G212" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H212" s="46" t="b">
         <v>0</v>
@@ -32282,7 +32285,7 @@
         <v>16.0</v>
       </c>
       <c r="B213" s="45" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C213" s="44">
         <v>16.4</v>
@@ -32291,13 +32294,13 @@
         <v>582</v>
       </c>
       <c r="E213" s="45" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="F213" s="45" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="G213" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H213" s="46" t="b">
         <v>0</v>
@@ -32311,7 +32314,7 @@
         <v>16.0</v>
       </c>
       <c r="B214" s="45" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C214" s="44">
         <v>16.4</v>
@@ -32320,13 +32323,13 @@
         <v>582</v>
       </c>
       <c r="E214" s="45" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="F214" s="45" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="G214" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H214" s="46" t="b">
         <v>0</v>
@@ -32340,7 +32343,7 @@
         <v>16.0</v>
       </c>
       <c r="B215" s="45" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C215" s="44">
         <v>16.5</v>
@@ -32349,13 +32352,13 @@
         <v>587</v>
       </c>
       <c r="E215" s="45" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="F215" s="45" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="G215" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H215" s="46" t="b">
         <v>0</v>
@@ -32369,7 +32372,7 @@
         <v>16.0</v>
       </c>
       <c r="B216" s="45" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C216" s="44">
         <v>16.5</v>
@@ -32378,13 +32381,13 @@
         <v>587</v>
       </c>
       <c r="E216" s="45" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="F216" s="45" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="G216" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H216" s="46" t="b">
         <v>0</v>
@@ -32398,7 +32401,7 @@
         <v>16.0</v>
       </c>
       <c r="B217" s="45" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C217" s="44">
         <v>16.6</v>
@@ -32407,13 +32410,13 @@
         <v>592</v>
       </c>
       <c r="E217" s="45" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="F217" s="45" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="G217" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H217" s="46" t="b">
         <v>0</v>
@@ -32427,7 +32430,7 @@
         <v>16.0</v>
       </c>
       <c r="B218" s="45" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C218" s="44">
         <v>16.6</v>
@@ -32436,13 +32439,13 @@
         <v>592</v>
       </c>
       <c r="E218" s="45" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="F218" s="45" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="G218" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H218" s="46" t="b">
         <v>0</v>
@@ -32456,7 +32459,7 @@
         <v>16.0</v>
       </c>
       <c r="B219" s="45" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C219" s="44">
         <v>16.7</v>
@@ -32465,13 +32468,13 @@
         <v>597</v>
       </c>
       <c r="E219" s="45" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="F219" s="45" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="G219" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H219" s="46" t="b">
         <v>0</v>
@@ -32485,7 +32488,7 @@
         <v>16.0</v>
       </c>
       <c r="B220" s="45" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C220" s="44">
         <v>16.7</v>
@@ -32494,13 +32497,13 @@
         <v>597</v>
       </c>
       <c r="E220" s="45" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="F220" s="45" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="G220" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H220" s="46" t="b">
         <v>0</v>
@@ -32514,7 +32517,7 @@
         <v>16.0</v>
       </c>
       <c r="B221" s="45" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C221" s="44">
         <v>16.8</v>
@@ -32523,13 +32526,13 @@
         <v>602</v>
       </c>
       <c r="E221" s="45" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="F221" s="45" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="G221" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H221" s="46" t="b">
         <v>1</v>
@@ -32543,7 +32546,7 @@
         <v>16.0</v>
       </c>
       <c r="B222" s="45" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C222" s="44">
         <v>16.9</v>
@@ -32552,13 +32555,13 @@
         <v>604</v>
       </c>
       <c r="E222" s="45" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="F222" s="45" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="G222" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H222" s="46" t="b">
         <v>0</v>
@@ -32572,7 +32575,7 @@
         <v>16.0</v>
       </c>
       <c r="B223" s="45" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C223" s="44">
         <v>16.1</v>
@@ -32581,13 +32584,13 @@
         <v>607</v>
       </c>
       <c r="E223" s="45" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="F223" s="45" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="G223" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H223" s="46" t="b">
         <v>0</v>
@@ -32601,7 +32604,7 @@
         <v>16.0</v>
       </c>
       <c r="B224" s="45" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C224" s="44">
         <v>16.1</v>
@@ -32610,13 +32613,13 @@
         <v>607</v>
       </c>
       <c r="E224" s="45" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="F224" s="45" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="G224" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H224" s="46" t="b">
         <v>0</v>
@@ -32630,22 +32633,22 @@
         <v>16.0</v>
       </c>
       <c r="B225" s="45" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C225" s="45" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="D225" s="45" t="s">
         <v>612</v>
       </c>
       <c r="E225" s="45" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="F225" s="45" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="G225" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H225" s="46" t="b">
         <v>0</v>
@@ -32659,22 +32662,22 @@
         <v>16.0</v>
       </c>
       <c r="B226" s="45" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C226" s="45" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="D226" s="45" t="s">
         <v>615</v>
       </c>
       <c r="E226" s="45" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="F226" s="45" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="G226" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H226" s="46" t="b">
         <v>0</v>
@@ -32688,7 +32691,7 @@
         <v>17.0</v>
       </c>
       <c r="B227" s="45" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C227" s="44">
         <v>17.1</v>
@@ -32697,13 +32700,13 @@
         <v>619</v>
       </c>
       <c r="E227" s="45" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="F227" s="45" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="G227" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H227" s="46" t="b">
         <v>0</v>
@@ -32717,7 +32720,7 @@
         <v>17.0</v>
       </c>
       <c r="B228" s="45" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C228" s="44">
         <v>17.1</v>
@@ -32726,13 +32729,13 @@
         <v>619</v>
       </c>
       <c r="E228" s="45" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="F228" s="45" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="G228" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H228" s="46" t="b">
         <v>0</v>
@@ -32746,22 +32749,22 @@
         <v>17.0</v>
       </c>
       <c r="B229" s="45" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C229" s="44">
         <v>17.2</v>
       </c>
       <c r="D229" s="45" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="E229" s="45" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="F229" s="45" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="G229" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H229" s="46" t="b">
         <v>0</v>
@@ -32775,7 +32778,7 @@
         <v>17.0</v>
       </c>
       <c r="B230" s="45" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C230" s="44">
         <v>17.3</v>
@@ -32784,13 +32787,13 @@
         <v>627</v>
       </c>
       <c r="E230" s="45" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="F230" s="45" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="G230" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H230" s="46" t="b">
         <v>0</v>
@@ -32804,7 +32807,7 @@
         <v>17.0</v>
       </c>
       <c r="B231" s="45" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C231" s="44">
         <v>17.3</v>
@@ -32813,13 +32816,13 @@
         <v>627</v>
       </c>
       <c r="E231" s="45" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="F231" s="45" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="G231" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H231" s="46" t="b">
         <v>0</v>
@@ -32833,7 +32836,7 @@
         <v>17.0</v>
       </c>
       <c r="B232" s="45" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C232" s="44">
         <v>17.4</v>
@@ -32842,13 +32845,13 @@
         <v>632</v>
       </c>
       <c r="E232" s="45" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="F232" s="45" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="G232" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H232" s="46" t="b">
         <v>0</v>
@@ -32862,7 +32865,7 @@
         <v>17.0</v>
       </c>
       <c r="B233" s="45" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C233" s="44">
         <v>17.5</v>
@@ -32871,13 +32874,13 @@
         <v>635</v>
       </c>
       <c r="E233" s="45" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="F233" s="45" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="G233" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H233" s="46" t="b">
         <v>0</v>
@@ -32891,7 +32894,7 @@
         <v>17.0</v>
       </c>
       <c r="B234" s="45" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C234" s="44">
         <v>17.6</v>
@@ -32900,13 +32903,13 @@
         <v>639</v>
       </c>
       <c r="E234" s="45" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="F234" s="45" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="G234" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H234" s="46" t="b">
         <v>0</v>
@@ -32920,7 +32923,7 @@
         <v>17.0</v>
       </c>
       <c r="B235" s="45" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C235" s="44">
         <v>17.7</v>
@@ -32929,13 +32932,13 @@
         <v>642</v>
       </c>
       <c r="E235" s="45" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="F235" s="45" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="G235" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H235" s="46" t="b">
         <v>0</v>
@@ -32949,7 +32952,7 @@
         <v>17.0</v>
       </c>
       <c r="B236" s="45" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C236" s="44">
         <v>17.8</v>
@@ -32958,13 +32961,13 @@
         <v>645</v>
       </c>
       <c r="E236" s="45" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="F236" s="45" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="G236" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H236" s="46" t="b">
         <v>0</v>
@@ -32978,7 +32981,7 @@
         <v>17.0</v>
       </c>
       <c r="B237" s="45" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C237" s="44">
         <v>17.9</v>
@@ -32987,13 +32990,13 @@
         <v>649</v>
       </c>
       <c r="E237" s="45" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="F237" s="45" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="G237" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H237" s="46" t="b">
         <v>0</v>
@@ -33007,22 +33010,22 @@
         <v>17.0</v>
       </c>
       <c r="B238" s="45" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C238" s="44">
         <v>17.1</v>
       </c>
       <c r="D238" s="45" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="E238" s="45" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="F238" s="45" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="G238" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H238" s="46" t="b">
         <v>0</v>
@@ -33036,7 +33039,7 @@
         <v>17.0</v>
       </c>
       <c r="B239" s="45" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C239" s="44">
         <v>17.11</v>
@@ -33045,13 +33048,13 @@
         <v>656</v>
       </c>
       <c r="E239" s="45" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="F239" s="45" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="G239" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H239" s="46" t="b">
         <v>0</v>
@@ -33065,7 +33068,7 @@
         <v>17.0</v>
       </c>
       <c r="B240" s="45" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C240" s="44">
         <v>17.12</v>
@@ -33074,13 +33077,13 @@
         <v>659</v>
       </c>
       <c r="E240" s="45" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="F240" s="45" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="G240" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H240" s="46" t="b">
         <v>0</v>
@@ -33094,7 +33097,7 @@
         <v>17.0</v>
       </c>
       <c r="B241" s="45" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C241" s="44">
         <v>17.13</v>
@@ -33103,13 +33106,13 @@
         <v>664</v>
       </c>
       <c r="E241" s="45" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="F241" s="45" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="G241" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H241" s="46" t="b">
         <v>0</v>
@@ -33123,7 +33126,7 @@
         <v>17.0</v>
       </c>
       <c r="B242" s="45" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C242" s="44">
         <v>17.14</v>
@@ -33132,13 +33135,13 @@
         <v>667</v>
       </c>
       <c r="E242" s="45" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="F242" s="45" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="G242" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H242" s="46" t="b">
         <v>0</v>
@@ -33152,7 +33155,7 @@
         <v>17.0</v>
       </c>
       <c r="B243" s="45" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C243" s="44">
         <v>17.15</v>
@@ -33161,13 +33164,13 @@
         <v>670</v>
       </c>
       <c r="E243" s="45" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="F243" s="45" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="G243" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H243" s="46" t="b">
         <v>0</v>
@@ -33181,7 +33184,7 @@
         <v>17.0</v>
       </c>
       <c r="B244" s="45" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C244" s="44">
         <v>17.16</v>
@@ -33190,13 +33193,13 @@
         <v>674</v>
       </c>
       <c r="E244" s="45" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="F244" s="45" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="G244" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H244" s="46" t="b">
         <v>0</v>
@@ -33210,7 +33213,7 @@
         <v>17.0</v>
       </c>
       <c r="B245" s="45" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C245" s="44">
         <v>17.17</v>
@@ -33219,13 +33222,13 @@
         <v>677</v>
       </c>
       <c r="E245" s="45" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="F245" s="45" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="G245" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H245" s="46" t="b">
         <v>0</v>
@@ -33239,7 +33242,7 @@
         <v>17.0</v>
       </c>
       <c r="B246" s="45" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C246" s="44">
         <v>17.18</v>
@@ -33248,13 +33251,13 @@
         <v>681</v>
       </c>
       <c r="E246" s="45" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="F246" s="45" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="G246" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H246" s="46" t="b">
         <v>0</v>
@@ -33268,7 +33271,7 @@
         <v>17.0</v>
       </c>
       <c r="B247" s="45" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C247" s="44">
         <v>17.18</v>
@@ -33277,13 +33280,13 @@
         <v>681</v>
       </c>
       <c r="E247" s="45" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="F247" s="45" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="G247" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H247" s="46" t="b">
         <v>0</v>
@@ -33297,7 +33300,7 @@
         <v>17.0</v>
       </c>
       <c r="B248" s="45" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C248" s="44">
         <v>17.18</v>
@@ -33306,13 +33309,13 @@
         <v>681</v>
       </c>
       <c r="E248" s="45" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="F248" s="45" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="G248" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H248" s="46" t="b">
         <v>0</v>
@@ -33326,7 +33329,7 @@
         <v>17.0</v>
       </c>
       <c r="B249" s="45" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C249" s="44">
         <v>17.19</v>
@@ -33335,13 +33338,13 @@
         <v>688</v>
       </c>
       <c r="E249" s="45" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="F249" s="45" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="G249" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H249" s="46" t="b">
         <v>0</v>
@@ -33355,7 +33358,7 @@
         <v>17.0</v>
       </c>
       <c r="B250" s="45" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C250" s="44">
         <v>17.19</v>
@@ -33364,13 +33367,13 @@
         <v>688</v>
       </c>
       <c r="E250" s="45" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="F250" s="45" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="G250" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H250" s="46" t="b">
         <v>0</v>
@@ -33381,22 +33384,22 @@
     </row>
     <row r="251">
       <c r="A251" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B251" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C251" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D251" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E251" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F251" s="45" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="G251" s="44">
         <v>1.0</v>
@@ -33410,22 +33413,22 @@
     </row>
     <row r="252">
       <c r="A252" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B252" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C252" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D252" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E252" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F252" s="45" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="G252" s="44">
         <v>1.0</v>
@@ -33439,22 +33442,22 @@
     </row>
     <row r="253">
       <c r="A253" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B253" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C253" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D253" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E253" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F253" s="45" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="G253" s="44">
         <v>1.0</v>
@@ -33468,22 +33471,22 @@
     </row>
     <row r="254">
       <c r="A254" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B254" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C254" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D254" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E254" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F254" s="45" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="G254" s="44">
         <v>1.0</v>
@@ -33497,22 +33500,22 @@
     </row>
     <row r="255">
       <c r="A255" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B255" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C255" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D255" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E255" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F255" s="45" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="G255" s="44">
         <v>1.0</v>
@@ -33526,22 +33529,22 @@
     </row>
     <row r="256">
       <c r="A256" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B256" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C256" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D256" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E256" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F256" s="45" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="G256" s="44">
         <v>1.0</v>
@@ -33555,22 +33558,22 @@
     </row>
     <row r="257">
       <c r="A257" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B257" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C257" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D257" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E257" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F257" s="45" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="G257" s="44">
         <v>1.0</v>
@@ -33584,22 +33587,22 @@
     </row>
     <row r="258">
       <c r="A258" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B258" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C258" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D258" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E258" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F258" s="45" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="G258" s="44">
         <v>1.0</v>
@@ -33613,22 +33616,22 @@
     </row>
     <row r="259">
       <c r="A259" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B259" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C259" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D259" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E259" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F259" s="45" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="G259" s="44">
         <v>1.0</v>
@@ -33642,22 +33645,22 @@
     </row>
     <row r="260">
       <c r="A260" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B260" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C260" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D260" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E260" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F260" s="45" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="G260" s="44">
         <v>1.0</v>
@@ -33671,22 +33674,22 @@
     </row>
     <row r="261">
       <c r="A261" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B261" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C261" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D261" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E261" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F261" s="45" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G261" s="44">
         <v>1.0</v>
@@ -33700,22 +33703,22 @@
     </row>
     <row r="262">
       <c r="A262" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B262" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C262" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D262" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E262" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F262" s="45" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="G262" s="44">
         <v>1.0</v>
@@ -33729,22 +33732,22 @@
     </row>
     <row r="263">
       <c r="A263" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B263" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C263" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D263" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E263" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F263" s="45" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="G263" s="44">
         <v>1.0</v>
@@ -33758,22 +33761,22 @@
     </row>
     <row r="264">
       <c r="A264" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B264" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C264" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D264" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E264" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F264" s="45" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="G264" s="44">
         <v>1.0</v>
@@ -33787,22 +33790,22 @@
     </row>
     <row r="265">
       <c r="A265" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B265" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C265" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D265" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E265" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F265" s="45" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="G265" s="44">
         <v>1.0</v>
@@ -33816,22 +33819,22 @@
     </row>
     <row r="266">
       <c r="A266" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B266" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C266" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D266" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E266" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F266" s="45" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="G266" s="44">
         <v>1.0</v>
@@ -33845,22 +33848,22 @@
     </row>
     <row r="267">
       <c r="A267" s="48" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B267" s="48" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C267" s="48" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D267" s="48" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E267" s="48" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F267" s="48" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G267" s="47">
         <v>1.0</v>
@@ -33891,22 +33894,22 @@
     </row>
     <row r="268">
       <c r="A268" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B268" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C268" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D268" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E268" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F268" s="45" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="G268" s="44">
         <v>1.0</v>
@@ -33920,22 +33923,22 @@
     </row>
     <row r="269">
       <c r="A269" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B269" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C269" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D269" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E269" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F269" s="45" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="G269" s="44">
         <v>1.0</v>
@@ -33949,22 +33952,22 @@
     </row>
     <row r="270">
       <c r="A270" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B270" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C270" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D270" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E270" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F270" s="45" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="G270" s="44">
         <v>1.0</v>
@@ -33978,22 +33981,22 @@
     </row>
     <row r="271">
       <c r="A271" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B271" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C271" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D271" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E271" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F271" s="45" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="G271" s="44">
         <v>1.0</v>
@@ -34007,22 +34010,22 @@
     </row>
     <row r="272">
       <c r="A272" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B272" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C272" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D272" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E272" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F272" s="45" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="G272" s="44">
         <v>1.0</v>
@@ -34036,22 +34039,22 @@
     </row>
     <row r="273">
       <c r="A273" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B273" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C273" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D273" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E273" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F273" s="45" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="G273" s="44">
         <v>1.0</v>
@@ -34065,22 +34068,22 @@
     </row>
     <row r="274">
       <c r="A274" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B274" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C274" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D274" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E274" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F274" s="45" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="G274" s="44">
         <v>1.0</v>
@@ -34094,22 +34097,22 @@
     </row>
     <row r="275">
       <c r="A275" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B275" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C275" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D275" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E275" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F275" s="45" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="G275" s="44">
         <v>1.0</v>
@@ -34123,22 +34126,22 @@
     </row>
     <row r="276">
       <c r="A276" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B276" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C276" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D276" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E276" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F276" s="45" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="G276" s="44">
         <v>1.0</v>
@@ -34152,22 +34155,22 @@
     </row>
     <row r="277">
       <c r="A277" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B277" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C277" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D277" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E277" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F277" s="45" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G277" s="44">
         <v>1.0</v>
@@ -34181,22 +34184,22 @@
     </row>
     <row r="278">
       <c r="A278" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B278" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C278" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D278" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E278" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F278" s="45" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="G278" s="44">
         <v>1.0</v>
@@ -34210,22 +34213,22 @@
     </row>
     <row r="279">
       <c r="A279" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B279" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C279" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D279" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E279" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F279" s="45" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="G279" s="44">
         <v>1.0</v>
@@ -34239,22 +34242,22 @@
     </row>
     <row r="280">
       <c r="A280" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B280" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C280" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D280" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E280" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F280" s="45" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="G280" s="44">
         <v>1.0</v>
@@ -34268,22 +34271,22 @@
     </row>
     <row r="281">
       <c r="A281" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B281" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C281" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D281" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E281" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F281" s="45" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="G281" s="44">
         <v>1.0</v>
@@ -34297,22 +34300,22 @@
     </row>
     <row r="282">
       <c r="A282" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B282" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C282" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D282" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E282" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F282" s="45" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="G282" s="44">
         <v>1.0</v>
@@ -34326,22 +34329,22 @@
     </row>
     <row r="283">
       <c r="A283" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B283" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C283" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D283" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E283" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F283" s="45" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="G283" s="44">
         <v>1.0</v>
@@ -34355,22 +34358,22 @@
     </row>
     <row r="284">
       <c r="A284" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B284" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C284" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D284" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E284" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F284" s="45" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="G284" s="44">
         <v>1.0</v>
@@ -34384,22 +34387,22 @@
     </row>
     <row r="285">
       <c r="A285" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B285" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C285" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D285" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E285" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F285" s="45" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="G285" s="44">
         <v>1.0</v>
@@ -34413,22 +34416,22 @@
     </row>
     <row r="286">
       <c r="A286" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B286" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C286" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D286" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E286" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F286" s="45" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="G286" s="44">
         <v>1.0</v>
@@ -34442,22 +34445,22 @@
     </row>
     <row r="287">
       <c r="A287" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B287" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C287" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D287" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E287" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F287" s="45" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="G287" s="44">
         <v>1.0</v>
@@ -34471,22 +34474,22 @@
     </row>
     <row r="288">
       <c r="A288" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B288" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C288" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D288" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E288" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F288" s="45" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="G288" s="44">
         <v>1.0</v>
@@ -34500,22 +34503,22 @@
     </row>
     <row r="289">
       <c r="A289" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B289" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C289" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D289" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E289" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F289" s="45" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="G289" s="44">
         <v>1.0</v>
@@ -34529,22 +34532,22 @@
     </row>
     <row r="290">
       <c r="A290" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B290" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C290" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D290" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E290" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F290" s="45" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="G290" s="44">
         <v>1.0</v>
@@ -34558,22 +34561,22 @@
     </row>
     <row r="291">
       <c r="A291" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B291" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C291" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D291" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E291" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F291" s="45" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="G291" s="44">
         <v>1.0</v>
@@ -34587,22 +34590,22 @@
     </row>
     <row r="292">
       <c r="A292" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B292" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C292" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D292" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E292" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F292" s="45" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="G292" s="44">
         <v>1.0</v>
@@ -34616,22 +34619,22 @@
     </row>
     <row r="293">
       <c r="A293" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B293" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C293" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D293" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E293" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F293" s="45" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="G293" s="44">
         <v>1.0</v>
@@ -34645,22 +34648,22 @@
     </row>
     <row r="294">
       <c r="A294" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B294" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C294" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D294" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E294" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F294" s="45" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="G294" s="44">
         <v>1.0</v>
@@ -34674,22 +34677,22 @@
     </row>
     <row r="295">
       <c r="A295" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B295" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C295" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D295" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E295" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F295" s="45" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="G295" s="44">
         <v>1.0</v>
@@ -34703,22 +34706,22 @@
     </row>
     <row r="296">
       <c r="A296" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B296" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C296" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D296" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E296" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F296" s="45" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="G296" s="44">
         <v>1.0</v>
@@ -34732,22 +34735,22 @@
     </row>
     <row r="297">
       <c r="A297" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B297" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C297" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D297" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E297" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F297" s="45" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="G297" s="44">
         <v>1.0</v>
@@ -34761,22 +34764,22 @@
     </row>
     <row r="298">
       <c r="A298" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B298" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C298" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D298" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E298" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F298" s="45" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="G298" s="44">
         <v>1.0</v>
@@ -34790,22 +34793,22 @@
     </row>
     <row r="299">
       <c r="A299" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B299" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C299" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D299" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E299" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F299" s="45" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="G299" s="44">
         <v>1.0</v>
@@ -34819,22 +34822,22 @@
     </row>
     <row r="300">
       <c r="A300" s="48" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B300" s="48" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C300" s="48" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D300" s="48" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E300" s="48" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F300" s="48" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="G300" s="47">
         <v>1.0</v>
@@ -34865,22 +34868,22 @@
     </row>
     <row r="301">
       <c r="A301" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B301" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C301" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D301" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E301" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F301" s="45" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="G301" s="44">
         <v>1.0</v>
@@ -34894,22 +34897,22 @@
     </row>
     <row r="302">
       <c r="A302" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B302" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C302" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D302" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E302" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F302" s="45" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="G302" s="44">
         <v>1.0</v>
@@ -34923,22 +34926,22 @@
     </row>
     <row r="303">
       <c r="A303" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B303" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C303" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D303" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E303" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F303" s="45" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="G303" s="44">
         <v>1.0</v>
@@ -34952,22 +34955,22 @@
     </row>
     <row r="304">
       <c r="A304" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B304" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C304" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D304" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E304" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F304" s="45" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="G304" s="44">
         <v>1.0</v>
@@ -34981,22 +34984,22 @@
     </row>
     <row r="305">
       <c r="A305" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B305" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C305" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D305" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E305" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F305" s="45" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="G305" s="44">
         <v>1.0</v>
@@ -35010,22 +35013,22 @@
     </row>
     <row r="306">
       <c r="A306" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B306" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C306" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D306" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E306" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F306" s="45" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="G306" s="44">
         <v>1.0</v>
@@ -35039,22 +35042,22 @@
     </row>
     <row r="307">
       <c r="A307" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B307" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C307" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D307" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E307" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F307" s="45" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="G307" s="44">
         <v>1.0</v>
@@ -35068,22 +35071,22 @@
     </row>
     <row r="308">
       <c r="A308" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B308" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C308" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D308" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E308" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F308" s="45" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="G308" s="44">
         <v>1.0</v>
@@ -35097,22 +35100,22 @@
     </row>
     <row r="309">
       <c r="A309" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B309" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C309" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D309" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E309" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F309" s="45" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="G309" s="44">
         <v>1.0</v>
@@ -35126,22 +35129,22 @@
     </row>
     <row r="310">
       <c r="A310" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B310" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C310" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D310" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E310" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F310" s="45" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="G310" s="44">
         <v>1.0</v>
@@ -35155,22 +35158,22 @@
     </row>
     <row r="311">
       <c r="A311" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B311" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C311" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D311" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E311" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F311" s="45" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="G311" s="44">
         <v>1.0</v>
@@ -35184,22 +35187,22 @@
     </row>
     <row r="312">
       <c r="A312" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B312" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C312" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D312" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E312" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F312" s="45" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="G312" s="44">
         <v>1.0</v>
@@ -35213,22 +35216,22 @@
     </row>
     <row r="313">
       <c r="A313" s="48" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B313" s="48" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C313" s="48" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D313" s="48" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E313" s="48" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F313" s="48" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="G313" s="47">
         <v>1.0</v>
@@ -35259,22 +35262,22 @@
     </row>
     <row r="314">
       <c r="A314" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B314" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C314" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D314" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E314" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F314" s="45" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="G314" s="44">
         <v>1.0</v>
@@ -35288,22 +35291,22 @@
     </row>
     <row r="315">
       <c r="A315" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B315" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C315" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D315" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E315" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F315" s="45" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="G315" s="44">
         <v>1.0</v>
@@ -35317,22 +35320,22 @@
     </row>
     <row r="316">
       <c r="A316" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B316" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C316" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D316" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E316" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F316" s="45" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="G316" s="44">
         <v>1.0</v>
@@ -35346,22 +35349,22 @@
     </row>
     <row r="317">
       <c r="A317" s="48" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B317" s="48" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C317" s="48" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D317" s="48" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E317" s="48" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F317" s="48" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="G317" s="47">
         <v>1.0</v>
@@ -35392,22 +35395,22 @@
     </row>
     <row r="318">
       <c r="A318" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B318" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C318" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D318" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E318" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F318" s="45" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="G318" s="44">
         <v>1.0</v>
@@ -35421,22 +35424,22 @@
     </row>
     <row r="319">
       <c r="A319" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B319" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C319" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D319" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E319" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F319" s="45" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="G319" s="44">
         <v>1.0</v>
@@ -35450,22 +35453,22 @@
     </row>
     <row r="320">
       <c r="A320" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B320" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C320" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D320" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E320" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F320" s="45" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="G320" s="44">
         <v>1.0</v>
@@ -35479,22 +35482,22 @@
     </row>
     <row r="321">
       <c r="A321" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B321" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C321" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D321" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E321" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F321" s="45" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="G321" s="44">
         <v>1.0</v>
@@ -35508,22 +35511,22 @@
     </row>
     <row r="322">
       <c r="A322" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B322" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C322" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D322" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E322" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F322" s="45" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="G322" s="44">
         <v>1.0</v>
@@ -35537,22 +35540,22 @@
     </row>
     <row r="323">
       <c r="A323" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B323" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C323" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D323" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E323" s="45" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F323" s="45" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="G323" s="44">
         <v>1.0</v>
